--- a/part-2/Docs/Timings.xlsx
+++ b/part-2/Docs/Timings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\accelerator-programming\part-2\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B00294272\Desktop\accelerator-programming\part-2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Small Image Timings</t>
   </si>
@@ -32,34 +32,10 @@
     <t>Large Image Timings</t>
   </si>
   <si>
-    <t>Program Time</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Radius = 5</t>
-  </si>
-  <si>
     <t>Radius = 13</t>
   </si>
   <si>
     <t>Radius = 35</t>
-  </si>
-  <si>
-    <t>Radius = 57</t>
-  </si>
-  <si>
-    <t>Computation Time</t>
   </si>
   <si>
     <t xml:space="preserve">CPU </t>
@@ -72,6 +48,18 @@
   </si>
   <si>
     <t xml:space="preserve">GPU </t>
+  </si>
+  <si>
+    <t>Radius = 3</t>
+  </si>
+  <si>
+    <t>Radius = 7</t>
+  </si>
+  <si>
+    <t>Real Time</t>
+  </si>
+  <si>
+    <t>Compute Time</t>
   </si>
 </sst>
 </file>
@@ -169,17 +157,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Program Time.</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Small Image / Real Time / CPU vs GPU</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> CPU vs GPU</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27195210290452648"/>
+          <c:y val="3.0715799046117234E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -280,6 +276,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -304,16 +301,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Radius = 5</c:v>
+                  <c:v>Radius = 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Radius = 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Radius = 13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Radius = 35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Radius = 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -325,16 +322,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>239</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1890</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13387</c:v>
+                  <c:v>1837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38942</c:v>
+                  <c:v>13331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,6 +406,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -433,16 +431,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Radius = 5</c:v>
+                  <c:v>Radius = 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Radius = 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Radius = 13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Radius = 35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Radius = 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -454,16 +452,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>610</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>538</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>441</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>527</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,6 +603,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -686,6 +685,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Small Image / Compute Time / CPU vs GPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -786,6 +816,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -810,16 +841,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Radius = 5</c:v>
+                  <c:v>Radius = 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Radius = 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Radius = 13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Radius = 35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Radius = 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -831,16 +862,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>235</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1854</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13390</c:v>
+                  <c:v>1817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35333</c:v>
+                  <c:v>13325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,6 +946,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -939,16 +971,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Radius = 5</c:v>
+                  <c:v>Radius = 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Radius = 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Radius = 13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Radius = 35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Radius = 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -960,16 +992,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,6 +1143,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1192,6 +1225,51 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Large Image / Compute Time / CPU vs GPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1204,13 +1282,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1292,6 +1384,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1316,16 +1409,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Radius = 5</c:v>
+                  <c:v>Radius = 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Radius = 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Radius = 13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Radius = 35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Radius = 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1337,16 +1430,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7590</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57695</c:v>
+                  <c:v>15042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>430635</c:v>
+                  <c:v>63284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1446700</c:v>
+                  <c:v>470381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,6 +1514,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1445,16 +1539,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Radius = 5</c:v>
+                  <c:v>Radius = 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Radius = 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Radius = 13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Radius = 35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Radius = 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1466,16 +1560,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>39.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.099999999999994</c:v>
+                  <c:v>53.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213</c:v>
+                  <c:v>102.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>281</c:v>
+                  <c:v>208.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,6 +1711,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1698,6 +1793,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Large</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Image / Real Time / CPU vs GPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1798,6 +1924,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1822,16 +1949,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Radius = 5</c:v>
+                  <c:v>Radius = 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Radius = 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Radius = 13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Radius = 35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Radius = 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1843,16 +1970,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7601</c:v>
+                  <c:v>2506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57706</c:v>
+                  <c:v>15051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>430646</c:v>
+                  <c:v>63293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1446711</c:v>
+                  <c:v>470390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,6 +2054,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1951,16 +2079,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Radius = 5</c:v>
+                  <c:v>Radius = 3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Radius = 7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Radius = 13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Radius = 35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Radius = 57</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1972,16 +2100,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>704</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>656</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>675</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>851</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,6 +2251,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4809,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4832,57 +4961,57 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="C6">
-        <v>610</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1890</v>
+        <v>490</v>
       </c>
       <c r="C7">
-        <v>538</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>13387</v>
+        <v>1837</v>
       </c>
       <c r="C8">
-        <v>441</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>38942</v>
+        <v>13331</v>
       </c>
       <c r="C9">
-        <v>527</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4890,54 +5019,54 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>2.2999999999999998</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>1854</v>
+        <v>472</v>
       </c>
       <c r="C14">
-        <v>3.1</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>13390</v>
+        <v>1817</v>
       </c>
       <c r="C15">
-        <v>6.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>35333</v>
+        <v>13325</v>
       </c>
       <c r="C16">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -4947,57 +5076,57 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>7601</v>
+        <v>2506</v>
       </c>
       <c r="C29">
-        <v>704</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>57706</v>
+        <v>15051</v>
       </c>
       <c r="C30">
-        <v>656</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>430646</v>
+        <v>63293</v>
       </c>
       <c r="C31">
-        <v>675</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>1446711</v>
+        <v>470390</v>
       </c>
       <c r="C32">
-        <v>851</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5005,54 +5134,54 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>7590</v>
+        <v>2500</v>
       </c>
       <c r="C38">
-        <v>47</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>57695</v>
+        <v>15042</v>
       </c>
       <c r="C39">
-        <v>79.099999999999994</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>430635</v>
+        <v>63284</v>
       </c>
       <c r="C40">
-        <v>213</v>
+        <v>102.39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>1446700</v>
+        <v>470381</v>
       </c>
       <c r="C41">
-        <v>281</v>
+        <v>208.6</v>
       </c>
     </row>
   </sheetData>

--- a/part-2/Docs/Timings.xlsx
+++ b/part-2/Docs/Timings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B00294272\Desktop\accelerator-programming\part-2\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\accelerator-programming\part-2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -160,7 +160,7 @@
               <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Small Image / Real Time / CPU vs GPU</a:t>
+              <a:t>512 x 512 / Real Time / CPU vs GPU</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -276,7 +276,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -406,7 +405,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -452,16 +450,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>206</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>285</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>255</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>184</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,6 +491,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -558,6 +586,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -593,6 +676,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -603,7 +725,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -704,10 +825,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>512 x 512 </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Small Image / Compute Time / CPU vs GPU</a:t>
+              <a:t>/ Compute Time / CPU vs GPU</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -715,7 +842,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -816,7 +942,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -946,7 +1071,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -992,16 +1116,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.78</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.33</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,6 +1157,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1098,6 +1252,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="500">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1133,6 +1347,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1143,7 +1396,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1258,10 +1510,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3840 x 2160 </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Large Image / Compute Time / CPU vs GPU</a:t>
+              <a:t>/ Compute Time / CPU vs GPU</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -1269,7 +1527,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1384,7 +1641,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1514,7 +1770,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1560,16 +1815,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>39.1</c:v>
+                  <c:v>43.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.9</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.39</c:v>
+                  <c:v>88.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208.6</c:v>
+                  <c:v>215.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,6 +1856,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1666,6 +1951,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="500">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1701,6 +2046,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1711,7 +2095,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1812,18 +2195,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Large</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3840 x 2160 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Image / Real Time / CPU vs GPU</a:t>
+              <a:t>/ Real Time / CPU vs GPU</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1924,7 +2308,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2054,7 +2437,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2100,16 +2482,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>299</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>389</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>440</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,6 +2523,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2206,6 +2618,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1050" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="500">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2241,6 +2713,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2251,7 +2762,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4938,8 +5448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,7 +5488,7 @@
         <v>81</v>
       </c>
       <c r="C6">
-        <v>206</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4989,7 +5499,7 @@
         <v>490</v>
       </c>
       <c r="C7">
-        <v>285</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5000,7 +5510,7 @@
         <v>1837</v>
       </c>
       <c r="C8">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5011,7 +5521,7 @@
         <v>13331</v>
       </c>
       <c r="C9">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,7 +5543,7 @@
         <v>79</v>
       </c>
       <c r="C13">
-        <v>1.78</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5044,7 +5554,7 @@
         <v>472</v>
       </c>
       <c r="C14">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5055,7 +5565,7 @@
         <v>1817</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5066,7 +5576,7 @@
         <v>13325</v>
       </c>
       <c r="C16">
-        <v>6.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
@@ -5093,7 +5603,7 @@
         <v>2506</v>
       </c>
       <c r="C29">
-        <v>299</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,7 +5614,7 @@
         <v>15051</v>
       </c>
       <c r="C30">
-        <v>389</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,7 +5625,7 @@
         <v>63293</v>
       </c>
       <c r="C31">
-        <v>398</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,7 +5636,7 @@
         <v>470390</v>
       </c>
       <c r="C32">
-        <v>440</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,7 +5658,7 @@
         <v>2500</v>
       </c>
       <c r="C38">
-        <v>39.1</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,7 +5669,7 @@
         <v>15042</v>
       </c>
       <c r="C39">
-        <v>53.9</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,7 +5680,7 @@
         <v>63284</v>
       </c>
       <c r="C40">
-        <v>102.39</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,7 +5691,7 @@
         <v>470381</v>
       </c>
       <c r="C41">
-        <v>208.6</v>
+        <v>215.6</v>
       </c>
     </row>
   </sheetData>

--- a/part-2/Docs/Timings.xlsx
+++ b/part-2/Docs/Timings.xlsx
@@ -492,6 +492,44 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Blur</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Radius</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4547088880822116"/>
+              <c:y val="0.85297317110661797"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1158,6 +1196,44 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Blur</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Radius</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45963684393637733"/>
+              <c:y val="0.85846195750369925"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1857,6 +1933,44 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Blur</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Radius</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45353458581591966"/>
+              <c:y val="0.86256331865488378"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2524,6 +2638,39 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Blur Radius</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45937959097394704"/>
+              <c:y val="0.8643669380167126"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5448,8 +5595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
